--- a/Design Analysis & Algorithms/Heap Sort_Graphs.xlsx
+++ b/Design Analysis & Algorithms/Heap Sort_Graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Documents\Design Analysis &amp; Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Desktop\Design Analysis &amp; Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC5A6A6-7D08-4A5F-A13C-F952296465CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976957A-45EE-474A-AE08-7BDA3E65DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1EBFF85B-67FC-4C51-B476-B0B3A1BFF2AD}"/>
   </bookViews>
@@ -126,14 +126,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6252,20 +6252,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6413,20 +6413,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6573,139 +6573,139 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>30</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>140</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>B4*LOG(B4,2)</f>
         <v>147.20671786825557</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>80</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>476</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D13" si="0">B5*LOG(B5,2)</f>
         <v>505.75424759098894</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>150</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1037</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1084.3228035743821</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>200</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1474</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1528.7712379549448</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>250</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1884</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>1991.4460711655217</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>300</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2355</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>2468.6456071487646</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>350</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2816</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>2957.9238891413152</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>400</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3326</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>3457.5424759098901</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>450</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3819</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>3966.2015360476667</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>500</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>4291</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>4482.8921423310439</v>
       </c>
